--- a/lbdata_132.xlsx
+++ b/lbdata_132.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcs314\Documents\Visual Studio 2012\Projects\lab2min\lab2min\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcs314\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9855" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="lbdata_132" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>K = 0.22</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Wavelength</t>
+  </si>
+  <si>
+    <t>Associated Error</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -559,7 +562,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -881,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,9 +895,11 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,8 +909,11 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>590.23699999999997</v>
       </c>
@@ -915,8 +923,12 @@
       <c r="D2" s="1">
         <v>590.23699999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>A3</f>
+        <v>8.4345400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8.4345400000000001</v>
       </c>
@@ -926,8 +938,12 @@
       <c r="D3" s="1">
         <v>593.85199999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>A6</f>
+        <v>8.4507600000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -937,8 +953,12 @@
       <c r="D4" s="1">
         <v>597.46699999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>A9</f>
+        <v>8.4682300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>593.85199999999998</v>
       </c>
@@ -948,8 +968,12 @@
       <c r="D5" s="1">
         <v>601.08100000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>A12</f>
+        <v>8.4869500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.4507600000000007</v>
       </c>
@@ -959,8 +983,12 @@
       <c r="D6" s="1">
         <v>604.69600000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>A15</f>
+        <v>8.5068999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -970,8 +998,12 @@
       <c r="D7" s="1">
         <v>608.30999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>A18</f>
+        <v>8.5280699999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>597.46699999999998</v>
       </c>
@@ -981,8 +1013,12 @@
       <c r="D8" s="1">
         <v>611.92499999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>A21</f>
+        <v>8.5504599999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.4682300000000001</v>
       </c>
@@ -992,8 +1028,12 @@
       <c r="D9" s="1">
         <v>615.53899999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>A24</f>
+        <v>8.5740499999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1043,12 @@
       <c r="D10" s="1">
         <v>619.154</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>A27</f>
+        <v>8.5988399999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>601.08100000000002</v>
       </c>
@@ -1014,8 +1058,12 @@
       <c r="D11" s="1">
         <v>622.76800000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>A30</f>
+        <v>8.6248100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.4869500000000002</v>
       </c>
@@ -1025,8 +1073,12 @@
       <c r="D12" s="1">
         <v>626.38300000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>A33</f>
+        <v>8.6519600000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1036,15 +1088,19 @@
       <c r="D13" s="1">
         <v>629.99699999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>A36</f>
+        <v>8.6802700000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>604.69600000000003</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.5068999999999999</v>
       </c>
@@ -1060,7 +1116,7 @@
         <v>610.11741666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>

--- a/lbdata_132.xlsx
+++ b/lbdata_132.xlsx
@@ -887,7 +887,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
       <c r="D2" s="1">
         <v>590.23699999999997</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>A3</f>
         <v>8.4345400000000001</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="D3" s="1">
         <v>593.85199999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>A6</f>
         <v>8.4507600000000007</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="D4" s="1">
         <v>597.46699999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>A9</f>
         <v>8.4682300000000001</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="D5" s="1">
         <v>601.08100000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>A12</f>
         <v>8.4869500000000002</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="D6" s="1">
         <v>604.69600000000003</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>A15</f>
         <v>8.5068999999999999</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D7" s="1">
         <v>608.30999999999995</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>A18</f>
         <v>8.5280699999999996</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="D8" s="1">
         <v>611.92499999999995</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>A21</f>
         <v>8.5504599999999993</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="D9" s="1">
         <v>615.53899999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>A24</f>
         <v>8.5740499999999997</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="D10" s="1">
         <v>619.154</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>A27</f>
         <v>8.5988399999999992</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="D11" s="1">
         <v>622.76800000000003</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>A30</f>
         <v>8.6248100000000001</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D12" s="1">
         <v>626.38300000000004</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f>A33</f>
         <v>8.6519600000000008</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="D13" s="1">
         <v>629.99699999999996</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>A36</f>
         <v>8.6802700000000002</v>
       </c>
